--- a/テーブル構成.xlsx
+++ b/テーブル構成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="555" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="RoomManagements" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="132">
   <si>
     <t>データ項目一覧</t>
     <rPh sb="3" eb="5">
@@ -750,26 +750,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>F</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>DATE</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1170,7 +1150,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1423,36 +1403,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1484,6 +1434,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1792,8 +1772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ39"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1806,13 +1786,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
       <c r="F1" s="1"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1853,11 +1833,11 @@
       <c r="AQ1" s="3"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1891,24 +1871,24 @@
       <c r="AF2" s="6"/>
       <c r="AG2" s="6"/>
       <c r="AH2" s="6"/>
-      <c r="AI2" s="35" t="s">
+      <c r="AI2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="25"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="5"/>
       <c r="G3" s="6" t="s">
         <v>14</v>
@@ -1942,24 +1922,24 @@
       <c r="AF3" s="6"/>
       <c r="AG3" s="6"/>
       <c r="AH3" s="6"/>
-      <c r="AI3" s="35" t="s">
+      <c r="AI3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="35"/>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="35"/>
-      <c r="AQ3" s="35"/>
+      <c r="AJ3" s="25"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="25"/>
+      <c r="AO3" s="25"/>
+      <c r="AP3" s="25"/>
+      <c r="AQ3" s="25"/>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -1989,24 +1969,24 @@
       <c r="AF4" s="6"/>
       <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
-      <c r="AI4" s="35" t="s">
+      <c r="AI4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="35"/>
-      <c r="AQ4" s="35"/>
+      <c r="AJ4" s="25"/>
+      <c r="AK4" s="25"/>
+      <c r="AL4" s="25"/>
+      <c r="AM4" s="25"/>
+      <c r="AN4" s="25"/>
+      <c r="AO4" s="25"/>
+      <c r="AP4" s="25"/>
+      <c r="AQ4" s="25"/>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -2036,24 +2016,24 @@
       <c r="AF5" s="8"/>
       <c r="AG5" s="8"/>
       <c r="AH5" s="8"/>
-      <c r="AI5" s="35" t="s">
+      <c r="AI5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AJ5" s="35"/>
-      <c r="AK5" s="35"/>
-      <c r="AL5" s="35"/>
-      <c r="AM5" s="35"/>
-      <c r="AN5" s="35"/>
-      <c r="AO5" s="35"/>
-      <c r="AP5" s="35"/>
-      <c r="AQ5" s="35"/>
+      <c r="AJ5" s="25"/>
+      <c r="AK5" s="25"/>
+      <c r="AL5" s="25"/>
+      <c r="AM5" s="25"/>
+      <c r="AN5" s="25"/>
+      <c r="AO5" s="25"/>
+      <c r="AP5" s="25"/>
+      <c r="AQ5" s="25"/>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -2064,11 +2044,11 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="17" t="s">
+      <c r="N6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="19"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="30"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -2098,9 +2078,9 @@
       <c r="AQ6" s="3"/>
     </row>
     <row r="7" spans="1:43" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="6"/>
       <c r="E7" s="9" t="s">
         <v>15</v>
@@ -2113,9 +2093,9 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="22"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="33"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6" t="s">
         <v>16</v>
@@ -2147,9 +2127,9 @@
       <c r="AQ7" s="10"/>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -2160,9 +2140,9 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="25"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="36"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
@@ -2195,60 +2175,60 @@
       <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16" t="s">
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16" t="s">
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16" t="s">
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16" t="s">
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="16"/>
-      <c r="AJ10" s="16"/>
-      <c r="AK10" s="16"/>
-      <c r="AL10" s="16"/>
-      <c r="AM10" s="16"/>
-      <c r="AN10" s="16"/>
-      <c r="AO10" s="16"/>
-      <c r="AP10" s="16"/>
-      <c r="AQ10" s="16"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="27"/>
+      <c r="AI10" s="27"/>
+      <c r="AJ10" s="27"/>
+      <c r="AK10" s="27"/>
+      <c r="AL10" s="27"/>
+      <c r="AM10" s="27"/>
+      <c r="AN10" s="27"/>
+      <c r="AO10" s="27"/>
+      <c r="AP10" s="27"/>
+      <c r="AQ10" s="27"/>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
@@ -2280,15 +2260,15 @@
       <c r="S11" s="14"/>
       <c r="T11" s="15"/>
       <c r="U11" s="13"/>
-      <c r="V11" s="14" t="s">
-        <v>94</v>
-      </c>
+      <c r="V11" s="14"/>
       <c r="W11" s="15"/>
       <c r="X11" s="13"/>
-      <c r="Y11" s="14"/>
+      <c r="Y11" s="14" t="s">
+        <v>94</v>
+      </c>
       <c r="Z11" s="15"/>
       <c r="AA11" s="14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AB11" s="14"/>
       <c r="AC11" s="14"/>
@@ -2337,15 +2317,15 @@
       <c r="S12" s="14"/>
       <c r="T12" s="15"/>
       <c r="U12" s="13"/>
-      <c r="V12" s="14" t="s">
-        <v>104</v>
-      </c>
+      <c r="V12" s="14"/>
       <c r="W12" s="15"/>
       <c r="X12" s="13"/>
-      <c r="Y12" s="14"/>
+      <c r="Y12" s="14" t="s">
+        <v>94</v>
+      </c>
       <c r="Z12" s="15"/>
       <c r="AA12" s="14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AB12" s="14"/>
       <c r="AC12" s="14"/>
@@ -2385,7 +2365,7 @@
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
       <c r="N13" s="13" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
@@ -2394,15 +2374,15 @@
       <c r="S13" s="14"/>
       <c r="T13" s="15"/>
       <c r="U13" s="13"/>
-      <c r="V13" s="14" t="s">
-        <v>101</v>
-      </c>
+      <c r="V13" s="14"/>
       <c r="W13" s="15"/>
       <c r="X13" s="13"/>
-      <c r="Y13" s="14"/>
+      <c r="Y13" s="14" t="s">
+        <v>94</v>
+      </c>
       <c r="Z13" s="15"/>
       <c r="AA13" s="14" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AB13" s="14"/>
       <c r="AC13" s="14"/>
@@ -2432,7 +2412,7 @@
         <v>85</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
@@ -2441,15 +2421,15 @@
       <c r="S14" s="14"/>
       <c r="T14" s="15"/>
       <c r="U14" s="13"/>
-      <c r="V14" s="14" t="s">
-        <v>102</v>
-      </c>
+      <c r="V14" s="14"/>
       <c r="W14" s="15"/>
       <c r="X14" s="13"/>
-      <c r="Y14" s="14"/>
+      <c r="Y14" s="14" t="s">
+        <v>94</v>
+      </c>
       <c r="Z14" s="15"/>
       <c r="AA14" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="AB14" s="14"/>
       <c r="AC14" s="14"/>
@@ -2498,15 +2478,15 @@
       <c r="S15" s="14"/>
       <c r="T15" s="15"/>
       <c r="U15" s="13"/>
-      <c r="V15" s="14" t="s">
-        <v>103</v>
-      </c>
+      <c r="V15" s="14"/>
       <c r="W15" s="15"/>
       <c r="X15" s="13"/>
-      <c r="Y15" s="14"/>
+      <c r="Y15" s="14" t="s">
+        <v>94</v>
+      </c>
       <c r="Z15" s="15"/>
       <c r="AA15" s="14" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AB15" s="14"/>
       <c r="AC15" s="14"/>
@@ -2555,15 +2535,15 @@
       <c r="S16" s="14"/>
       <c r="T16" s="15"/>
       <c r="U16" s="13"/>
-      <c r="V16" s="14" t="s">
-        <v>104</v>
-      </c>
+      <c r="V16" s="14"/>
       <c r="W16" s="15"/>
       <c r="X16" s="13"/>
-      <c r="Y16" s="14"/>
+      <c r="Y16" s="14" t="s">
+        <v>94</v>
+      </c>
       <c r="Z16" s="15"/>
       <c r="AA16" s="14" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AB16" s="14"/>
       <c r="AC16" s="14"/>
@@ -2603,7 +2583,7 @@
       <c r="L17" s="14"/>
       <c r="M17" s="15"/>
       <c r="N17" s="13" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
@@ -2618,7 +2598,7 @@
       <c r="Y17" s="14"/>
       <c r="Z17" s="15"/>
       <c r="AA17" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="AB17" s="14"/>
       <c r="AC17" s="14"/>
@@ -2667,15 +2647,15 @@
       <c r="S18" s="14"/>
       <c r="T18" s="15"/>
       <c r="U18" s="13"/>
-      <c r="V18" s="14" t="s">
-        <v>105</v>
-      </c>
+      <c r="V18" s="14"/>
       <c r="W18" s="15"/>
       <c r="X18" s="13"/>
-      <c r="Y18" s="14"/>
+      <c r="Y18" s="14" t="s">
+        <v>94</v>
+      </c>
       <c r="Z18" s="15"/>
       <c r="AA18" s="14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AB18" s="14"/>
       <c r="AC18" s="14"/>
@@ -2715,7 +2695,7 @@
       <c r="L19" s="14"/>
       <c r="M19" s="15"/>
       <c r="N19" s="13" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
@@ -2730,7 +2710,7 @@
       <c r="Y19" s="14"/>
       <c r="Z19" s="15"/>
       <c r="AA19" s="14" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AB19" s="14"/>
       <c r="AC19" s="14"/>
@@ -3650,6 +3630,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="AA10:AQ10"/>
+    <mergeCell ref="A6:C8"/>
+    <mergeCell ref="N6:P8"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:T10"/>
+    <mergeCell ref="U10:W10"/>
     <mergeCell ref="A1:E5"/>
     <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="AK2:AQ2"/>
@@ -3659,14 +3647,6 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AI5:AJ5"/>
     <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="AA10:AQ10"/>
-    <mergeCell ref="A6:C8"/>
-    <mergeCell ref="N6:P8"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="N10:T10"/>
-    <mergeCell ref="U10:W10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3692,13 +3672,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
       <c r="F1" s="1"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -3739,11 +3719,11 @@
       <c r="AQ1" s="3"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
@@ -3777,24 +3757,24 @@
       <c r="AF2" s="6"/>
       <c r="AG2" s="6"/>
       <c r="AH2" s="6"/>
-      <c r="AI2" s="35" t="s">
+      <c r="AI2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="25"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="5"/>
       <c r="G3" s="6" t="s">
         <v>14</v>
@@ -3828,24 +3808,24 @@
       <c r="AF3" s="6"/>
       <c r="AG3" s="6"/>
       <c r="AH3" s="6"/>
-      <c r="AI3" s="35" t="s">
+      <c r="AI3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="35"/>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="35"/>
-      <c r="AQ3" s="35"/>
+      <c r="AJ3" s="25"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="25"/>
+      <c r="AO3" s="25"/>
+      <c r="AP3" s="25"/>
+      <c r="AQ3" s="25"/>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -3875,24 +3855,24 @@
       <c r="AF4" s="6"/>
       <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
-      <c r="AI4" s="35" t="s">
+      <c r="AI4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="35"/>
-      <c r="AQ4" s="35"/>
+      <c r="AJ4" s="25"/>
+      <c r="AK4" s="25"/>
+      <c r="AL4" s="25"/>
+      <c r="AM4" s="25"/>
+      <c r="AN4" s="25"/>
+      <c r="AO4" s="25"/>
+      <c r="AP4" s="25"/>
+      <c r="AQ4" s="25"/>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -3922,24 +3902,24 @@
       <c r="AF5" s="8"/>
       <c r="AG5" s="8"/>
       <c r="AH5" s="8"/>
-      <c r="AI5" s="35" t="s">
+      <c r="AI5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AJ5" s="35"/>
-      <c r="AK5" s="35"/>
-      <c r="AL5" s="35"/>
-      <c r="AM5" s="35"/>
-      <c r="AN5" s="35"/>
-      <c r="AO5" s="35"/>
-      <c r="AP5" s="35"/>
-      <c r="AQ5" s="35"/>
+      <c r="AJ5" s="25"/>
+      <c r="AK5" s="25"/>
+      <c r="AL5" s="25"/>
+      <c r="AM5" s="25"/>
+      <c r="AN5" s="25"/>
+      <c r="AO5" s="25"/>
+      <c r="AP5" s="25"/>
+      <c r="AQ5" s="25"/>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -3950,11 +3930,11 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="17" t="s">
+      <c r="N6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="19"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="30"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -3984,9 +3964,9 @@
       <c r="AQ6" s="3"/>
     </row>
     <row r="7" spans="1:43" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="6"/>
       <c r="E7" s="9" t="s">
         <v>18</v>
@@ -3999,9 +3979,9 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="22"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="33"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6" t="s">
         <v>23</v>
@@ -4033,9 +4013,9 @@
       <c r="AQ7" s="10"/>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -4046,9 +4026,9 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="25"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="36"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
@@ -4081,60 +4061,60 @@
       <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16" t="s">
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16" t="s">
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16" t="s">
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16" t="s">
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="16"/>
-      <c r="AJ10" s="16"/>
-      <c r="AK10" s="16"/>
-      <c r="AL10" s="16"/>
-      <c r="AM10" s="16"/>
-      <c r="AN10" s="16"/>
-      <c r="AO10" s="16"/>
-      <c r="AP10" s="16"/>
-      <c r="AQ10" s="16"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="27"/>
+      <c r="AI10" s="27"/>
+      <c r="AJ10" s="27"/>
+      <c r="AK10" s="27"/>
+      <c r="AL10" s="27"/>
+      <c r="AM10" s="27"/>
+      <c r="AN10" s="27"/>
+      <c r="AO10" s="27"/>
+      <c r="AP10" s="27"/>
+      <c r="AQ10" s="27"/>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
@@ -4206,7 +4186,7 @@
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="13" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -4214,7 +4194,7 @@
       <c r="L12" s="14"/>
       <c r="M12" s="15"/>
       <c r="N12" s="13" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
@@ -4385,7 +4365,7 @@
       <c r="L15" s="14"/>
       <c r="M15" s="15"/>
       <c r="N15" s="13" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
@@ -4455,7 +4435,7 @@
       <c r="Y16" s="14"/>
       <c r="Z16" s="15"/>
       <c r="AA16" s="14" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="AB16" s="14"/>
       <c r="AC16" s="14"/>
@@ -5511,23 +5491,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:T10"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="AA10:AQ10"/>
+    <mergeCell ref="AK3:AQ3"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AQ5"/>
     <mergeCell ref="A6:C8"/>
     <mergeCell ref="N6:P8"/>
     <mergeCell ref="A1:E5"/>
     <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="AK2:AQ2"/>
     <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AA10:AQ10"/>
-    <mergeCell ref="AK3:AQ3"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="N10:T10"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="X10:Z10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5551,13 +5531,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
       <c r="F1" s="1"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -5598,11 +5578,11 @@
       <c r="AQ1" s="3"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
@@ -5636,24 +5616,24 @@
       <c r="AF2" s="6"/>
       <c r="AG2" s="6"/>
       <c r="AH2" s="6"/>
-      <c r="AI2" s="35" t="s">
+      <c r="AI2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="25"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="5"/>
       <c r="G3" s="6" t="s">
         <v>14</v>
@@ -5687,24 +5667,24 @@
       <c r="AF3" s="6"/>
       <c r="AG3" s="6"/>
       <c r="AH3" s="6"/>
-      <c r="AI3" s="35" t="s">
+      <c r="AI3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="35"/>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="35"/>
-      <c r="AQ3" s="35"/>
+      <c r="AJ3" s="25"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="25"/>
+      <c r="AO3" s="25"/>
+      <c r="AP3" s="25"/>
+      <c r="AQ3" s="25"/>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -5734,24 +5714,24 @@
       <c r="AF4" s="6"/>
       <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
-      <c r="AI4" s="35" t="s">
+      <c r="AI4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="35"/>
-      <c r="AQ4" s="35"/>
+      <c r="AJ4" s="25"/>
+      <c r="AK4" s="25"/>
+      <c r="AL4" s="25"/>
+      <c r="AM4" s="25"/>
+      <c r="AN4" s="25"/>
+      <c r="AO4" s="25"/>
+      <c r="AP4" s="25"/>
+      <c r="AQ4" s="25"/>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -5781,24 +5761,24 @@
       <c r="AF5" s="8"/>
       <c r="AG5" s="8"/>
       <c r="AH5" s="8"/>
-      <c r="AI5" s="35" t="s">
+      <c r="AI5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AJ5" s="35"/>
-      <c r="AK5" s="35"/>
-      <c r="AL5" s="35"/>
-      <c r="AM5" s="35"/>
-      <c r="AN5" s="35"/>
-      <c r="AO5" s="35"/>
-      <c r="AP5" s="35"/>
-      <c r="AQ5" s="35"/>
+      <c r="AJ5" s="25"/>
+      <c r="AK5" s="25"/>
+      <c r="AL5" s="25"/>
+      <c r="AM5" s="25"/>
+      <c r="AN5" s="25"/>
+      <c r="AO5" s="25"/>
+      <c r="AP5" s="25"/>
+      <c r="AQ5" s="25"/>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -5809,11 +5789,11 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="17" t="s">
+      <c r="N6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="19"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="30"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -5843,9 +5823,9 @@
       <c r="AQ6" s="3"/>
     </row>
     <row r="7" spans="1:43" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="6"/>
       <c r="E7" s="9" t="s">
         <v>62</v>
@@ -5858,9 +5838,9 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="22"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="33"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6" t="s">
         <v>50</v>
@@ -5892,9 +5872,9 @@
       <c r="AQ7" s="10"/>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -5905,9 +5885,9 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="25"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="36"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
@@ -5940,60 +5920,60 @@
       <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16" t="s">
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16" t="s">
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16" t="s">
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16" t="s">
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="16"/>
-      <c r="AJ10" s="16"/>
-      <c r="AK10" s="16"/>
-      <c r="AL10" s="16"/>
-      <c r="AM10" s="16"/>
-      <c r="AN10" s="16"/>
-      <c r="AO10" s="16"/>
-      <c r="AP10" s="16"/>
-      <c r="AQ10" s="16"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="27"/>
+      <c r="AI10" s="27"/>
+      <c r="AJ10" s="27"/>
+      <c r="AK10" s="27"/>
+      <c r="AL10" s="27"/>
+      <c r="AM10" s="27"/>
+      <c r="AN10" s="27"/>
+      <c r="AO10" s="27"/>
+      <c r="AP10" s="27"/>
+      <c r="AQ10" s="27"/>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
@@ -6016,7 +5996,7 @@
       <c r="L11" s="14"/>
       <c r="M11" s="15"/>
       <c r="N11" s="13" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
@@ -6035,7 +6015,7 @@
       </c>
       <c r="Z11" s="15"/>
       <c r="AA11" s="14" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="AB11" s="14"/>
       <c r="AC11" s="14"/>
@@ -6075,7 +6055,7 @@
       <c r="L12" s="14"/>
       <c r="M12" s="15"/>
       <c r="N12" s="13" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
@@ -6090,7 +6070,7 @@
       <c r="Y12" s="14"/>
       <c r="Z12" s="15"/>
       <c r="AA12" s="14" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AB12" s="14"/>
       <c r="AC12" s="14"/>
@@ -7326,6 +7306,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="AA10:AQ10"/>
+    <mergeCell ref="A6:C8"/>
+    <mergeCell ref="N6:P8"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:T10"/>
+    <mergeCell ref="U10:W10"/>
     <mergeCell ref="A1:E5"/>
     <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="AK2:AQ2"/>
@@ -7335,14 +7323,6 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AI5:AJ5"/>
     <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="AA10:AQ10"/>
-    <mergeCell ref="A6:C8"/>
-    <mergeCell ref="N6:P8"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="N10:T10"/>
-    <mergeCell ref="U10:W10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7366,13 +7346,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
       <c r="F1" s="1"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -7413,11 +7393,11 @@
       <c r="AQ1" s="3"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
@@ -7451,24 +7431,24 @@
       <c r="AF2" s="6"/>
       <c r="AG2" s="6"/>
       <c r="AH2" s="6"/>
-      <c r="AI2" s="35" t="s">
+      <c r="AI2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="25"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="5"/>
       <c r="G3" s="6" t="s">
         <v>14</v>
@@ -7502,24 +7482,24 @@
       <c r="AF3" s="6"/>
       <c r="AG3" s="6"/>
       <c r="AH3" s="6"/>
-      <c r="AI3" s="35" t="s">
+      <c r="AI3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="35"/>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="35"/>
-      <c r="AQ3" s="35"/>
+      <c r="AJ3" s="25"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="25"/>
+      <c r="AO3" s="25"/>
+      <c r="AP3" s="25"/>
+      <c r="AQ3" s="25"/>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -7549,24 +7529,24 @@
       <c r="AF4" s="6"/>
       <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
-      <c r="AI4" s="35" t="s">
+      <c r="AI4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="35"/>
-      <c r="AQ4" s="35"/>
+      <c r="AJ4" s="25"/>
+      <c r="AK4" s="25"/>
+      <c r="AL4" s="25"/>
+      <c r="AM4" s="25"/>
+      <c r="AN4" s="25"/>
+      <c r="AO4" s="25"/>
+      <c r="AP4" s="25"/>
+      <c r="AQ4" s="25"/>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -7596,24 +7576,24 @@
       <c r="AF5" s="8"/>
       <c r="AG5" s="8"/>
       <c r="AH5" s="8"/>
-      <c r="AI5" s="35" t="s">
+      <c r="AI5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AJ5" s="35"/>
-      <c r="AK5" s="35"/>
-      <c r="AL5" s="35"/>
-      <c r="AM5" s="35"/>
-      <c r="AN5" s="35"/>
-      <c r="AO5" s="35"/>
-      <c r="AP5" s="35"/>
-      <c r="AQ5" s="35"/>
+      <c r="AJ5" s="25"/>
+      <c r="AK5" s="25"/>
+      <c r="AL5" s="25"/>
+      <c r="AM5" s="25"/>
+      <c r="AN5" s="25"/>
+      <c r="AO5" s="25"/>
+      <c r="AP5" s="25"/>
+      <c r="AQ5" s="25"/>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -7624,11 +7604,11 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="17" t="s">
+      <c r="N6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="19"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="30"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -7658,12 +7638,12 @@
       <c r="AQ6" s="3"/>
     </row>
     <row r="7" spans="1:43" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="6"/>
       <c r="E7" s="9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -7673,9 +7653,9 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="22"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="33"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6" t="s">
         <v>23</v>
@@ -7707,9 +7687,9 @@
       <c r="AQ7" s="10"/>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -7720,9 +7700,9 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="25"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="36"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
@@ -7755,60 +7735,60 @@
       <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16" t="s">
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16" t="s">
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16" t="s">
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16" t="s">
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="16"/>
-      <c r="AJ10" s="16"/>
-      <c r="AK10" s="16"/>
-      <c r="AL10" s="16"/>
-      <c r="AM10" s="16"/>
-      <c r="AN10" s="16"/>
-      <c r="AO10" s="16"/>
-      <c r="AP10" s="16"/>
-      <c r="AQ10" s="16"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="27"/>
+      <c r="AI10" s="27"/>
+      <c r="AJ10" s="27"/>
+      <c r="AK10" s="27"/>
+      <c r="AL10" s="27"/>
+      <c r="AM10" s="27"/>
+      <c r="AN10" s="27"/>
+      <c r="AO10" s="27"/>
+      <c r="AP10" s="27"/>
+      <c r="AQ10" s="27"/>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
@@ -8000,7 +7980,7 @@
       <c r="L14" s="14"/>
       <c r="M14" s="15"/>
       <c r="N14" s="13" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
@@ -9161,6 +9141,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="AA10:AQ10"/>
+    <mergeCell ref="A6:C8"/>
+    <mergeCell ref="N6:P8"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:T10"/>
+    <mergeCell ref="U10:W10"/>
     <mergeCell ref="A1:E5"/>
     <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="AK2:AQ2"/>
@@ -9170,14 +9158,6 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AI5:AJ5"/>
     <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="AA10:AQ10"/>
-    <mergeCell ref="A6:C8"/>
-    <mergeCell ref="N6:P8"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="N10:T10"/>
-    <mergeCell ref="U10:W10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9201,13 +9181,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
       <c r="F1" s="1"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -9248,11 +9228,11 @@
       <c r="AQ1" s="3"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
@@ -9286,24 +9266,24 @@
       <c r="AF2" s="6"/>
       <c r="AG2" s="6"/>
       <c r="AH2" s="6"/>
-      <c r="AI2" s="35" t="s">
+      <c r="AI2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="25"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="5"/>
       <c r="G3" s="6" t="s">
         <v>14</v>
@@ -9337,24 +9317,24 @@
       <c r="AF3" s="6"/>
       <c r="AG3" s="6"/>
       <c r="AH3" s="6"/>
-      <c r="AI3" s="35" t="s">
+      <c r="AI3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="35"/>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="35"/>
-      <c r="AQ3" s="35"/>
+      <c r="AJ3" s="25"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="25"/>
+      <c r="AO3" s="25"/>
+      <c r="AP3" s="25"/>
+      <c r="AQ3" s="25"/>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -9384,24 +9364,24 @@
       <c r="AF4" s="6"/>
       <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
-      <c r="AI4" s="35" t="s">
+      <c r="AI4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="35"/>
-      <c r="AQ4" s="35"/>
+      <c r="AJ4" s="25"/>
+      <c r="AK4" s="25"/>
+      <c r="AL4" s="25"/>
+      <c r="AM4" s="25"/>
+      <c r="AN4" s="25"/>
+      <c r="AO4" s="25"/>
+      <c r="AP4" s="25"/>
+      <c r="AQ4" s="25"/>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -9431,24 +9411,24 @@
       <c r="AF5" s="8"/>
       <c r="AG5" s="8"/>
       <c r="AH5" s="8"/>
-      <c r="AI5" s="35" t="s">
+      <c r="AI5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AJ5" s="35"/>
-      <c r="AK5" s="35"/>
-      <c r="AL5" s="35"/>
-      <c r="AM5" s="35"/>
-      <c r="AN5" s="35"/>
-      <c r="AO5" s="35"/>
-      <c r="AP5" s="35"/>
-      <c r="AQ5" s="35"/>
+      <c r="AJ5" s="25"/>
+      <c r="AK5" s="25"/>
+      <c r="AL5" s="25"/>
+      <c r="AM5" s="25"/>
+      <c r="AN5" s="25"/>
+      <c r="AO5" s="25"/>
+      <c r="AP5" s="25"/>
+      <c r="AQ5" s="25"/>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -9459,11 +9439,11 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="17" t="s">
+      <c r="N6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="19"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="30"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -9493,9 +9473,9 @@
       <c r="AQ6" s="3"/>
     </row>
     <row r="7" spans="1:43" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="6"/>
       <c r="E7" s="9" t="s">
         <v>27</v>
@@ -9508,9 +9488,9 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="22"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="33"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6" t="s">
         <v>41</v>
@@ -9542,9 +9522,9 @@
       <c r="AQ7" s="10"/>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -9555,9 +9535,9 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="25"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="36"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
@@ -9590,60 +9570,60 @@
       <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16" t="s">
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16" t="s">
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16" t="s">
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16" t="s">
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="16"/>
-      <c r="AJ10" s="16"/>
-      <c r="AK10" s="16"/>
-      <c r="AL10" s="16"/>
-      <c r="AM10" s="16"/>
-      <c r="AN10" s="16"/>
-      <c r="AO10" s="16"/>
-      <c r="AP10" s="16"/>
-      <c r="AQ10" s="16"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="27"/>
+      <c r="AI10" s="27"/>
+      <c r="AJ10" s="27"/>
+      <c r="AK10" s="27"/>
+      <c r="AL10" s="27"/>
+      <c r="AM10" s="27"/>
+      <c r="AN10" s="27"/>
+      <c r="AO10" s="27"/>
+      <c r="AP10" s="27"/>
+      <c r="AQ10" s="27"/>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
@@ -9666,7 +9646,7 @@
       <c r="L11" s="14"/>
       <c r="M11" s="15"/>
       <c r="N11" s="13" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
@@ -9683,7 +9663,7 @@
       </c>
       <c r="Z11" s="15"/>
       <c r="AA11" s="14" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AB11" s="14"/>
       <c r="AC11" s="14"/>
@@ -9738,7 +9718,7 @@
       <c r="Y12" s="14"/>
       <c r="Z12" s="15"/>
       <c r="AA12" s="14" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="AB12" s="14"/>
       <c r="AC12" s="14"/>
@@ -9770,7 +9750,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="15"/>
       <c r="H13" s="13" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -9795,7 +9775,7 @@
       </c>
       <c r="Z13" s="15"/>
       <c r="AA13" s="14" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AB13" s="14"/>
       <c r="AC13" s="14"/>
@@ -9850,7 +9830,7 @@
       <c r="Y14" s="14"/>
       <c r="Z14" s="15"/>
       <c r="AA14" s="14" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AB14" s="14"/>
       <c r="AC14" s="14"/>
@@ -10996,14 +10976,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="AA10:AQ10"/>
-    <mergeCell ref="A6:C8"/>
-    <mergeCell ref="N6:P8"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="N10:T10"/>
-    <mergeCell ref="U10:W10"/>
     <mergeCell ref="A1:E5"/>
     <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="AK2:AQ2"/>
@@ -11013,6 +10985,14 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AI5:AJ5"/>
     <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="AA10:AQ10"/>
+    <mergeCell ref="A6:C8"/>
+    <mergeCell ref="N6:P8"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:T10"/>
+    <mergeCell ref="U10:W10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11024,7 +11004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
@@ -11036,13 +11016,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
       <c r="F1" s="1"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -11083,11 +11063,11 @@
       <c r="AQ1" s="3"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
@@ -11121,24 +11101,24 @@
       <c r="AF2" s="6"/>
       <c r="AG2" s="6"/>
       <c r="AH2" s="6"/>
-      <c r="AI2" s="35" t="s">
+      <c r="AI2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="25"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="5"/>
       <c r="G3" s="6" t="s">
         <v>14</v>
@@ -11172,24 +11152,24 @@
       <c r="AF3" s="6"/>
       <c r="AG3" s="6"/>
       <c r="AH3" s="6"/>
-      <c r="AI3" s="35" t="s">
+      <c r="AI3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="35"/>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="35"/>
-      <c r="AQ3" s="35"/>
+      <c r="AJ3" s="25"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="25"/>
+      <c r="AO3" s="25"/>
+      <c r="AP3" s="25"/>
+      <c r="AQ3" s="25"/>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -11219,24 +11199,24 @@
       <c r="AF4" s="6"/>
       <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
-      <c r="AI4" s="35" t="s">
+      <c r="AI4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="35"/>
-      <c r="AQ4" s="35"/>
+      <c r="AJ4" s="25"/>
+      <c r="AK4" s="25"/>
+      <c r="AL4" s="25"/>
+      <c r="AM4" s="25"/>
+      <c r="AN4" s="25"/>
+      <c r="AO4" s="25"/>
+      <c r="AP4" s="25"/>
+      <c r="AQ4" s="25"/>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -11266,24 +11246,24 @@
       <c r="AF5" s="8"/>
       <c r="AG5" s="8"/>
       <c r="AH5" s="8"/>
-      <c r="AI5" s="35" t="s">
+      <c r="AI5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AJ5" s="35"/>
-      <c r="AK5" s="35"/>
-      <c r="AL5" s="35"/>
-      <c r="AM5" s="35"/>
-      <c r="AN5" s="35"/>
-      <c r="AO5" s="35"/>
-      <c r="AP5" s="35"/>
-      <c r="AQ5" s="35"/>
+      <c r="AJ5" s="25"/>
+      <c r="AK5" s="25"/>
+      <c r="AL5" s="25"/>
+      <c r="AM5" s="25"/>
+      <c r="AN5" s="25"/>
+      <c r="AO5" s="25"/>
+      <c r="AP5" s="25"/>
+      <c r="AQ5" s="25"/>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -11294,11 +11274,11 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="17" t="s">
+      <c r="N6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="19"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="30"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -11328,12 +11308,12 @@
       <c r="AQ6" s="3"/>
     </row>
     <row r="7" spans="1:43" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="6"/>
       <c r="E7" s="9" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -11343,9 +11323,9 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="22"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="33"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6" t="s">
         <v>50</v>
@@ -11377,9 +11357,9 @@
       <c r="AQ7" s="10"/>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -11390,9 +11370,9 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="25"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="36"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
@@ -11425,60 +11405,60 @@
       <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16" t="s">
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16" t="s">
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16" t="s">
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16" t="s">
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="16"/>
-      <c r="AJ10" s="16"/>
-      <c r="AK10" s="16"/>
-      <c r="AL10" s="16"/>
-      <c r="AM10" s="16"/>
-      <c r="AN10" s="16"/>
-      <c r="AO10" s="16"/>
-      <c r="AP10" s="16"/>
-      <c r="AQ10" s="16"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="27"/>
+      <c r="AI10" s="27"/>
+      <c r="AJ10" s="27"/>
+      <c r="AK10" s="27"/>
+      <c r="AL10" s="27"/>
+      <c r="AM10" s="27"/>
+      <c r="AN10" s="27"/>
+      <c r="AO10" s="27"/>
+      <c r="AP10" s="27"/>
+      <c r="AQ10" s="27"/>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
@@ -11518,7 +11498,7 @@
       </c>
       <c r="Z11" s="15"/>
       <c r="AA11" s="14" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AB11" s="14"/>
       <c r="AC11" s="14"/>
@@ -11575,7 +11555,7 @@
       <c r="Y12" s="14"/>
       <c r="Z12" s="15"/>
       <c r="AA12" s="14" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AB12" s="14"/>
       <c r="AC12" s="14"/>
@@ -12811,6 +12791,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="AA10:AQ10"/>
+    <mergeCell ref="A6:C8"/>
+    <mergeCell ref="N6:P8"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:T10"/>
+    <mergeCell ref="U10:W10"/>
     <mergeCell ref="A1:E5"/>
     <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="AK2:AQ2"/>
@@ -12820,14 +12808,6 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AI5:AJ5"/>
     <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="AA10:AQ10"/>
-    <mergeCell ref="A6:C8"/>
-    <mergeCell ref="N6:P8"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="N10:T10"/>
-    <mergeCell ref="U10:W10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12850,13 +12830,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
       <c r="F1" s="1"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -12897,11 +12877,11 @@
       <c r="AQ1" s="3"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
@@ -12935,24 +12915,24 @@
       <c r="AF2" s="6"/>
       <c r="AG2" s="6"/>
       <c r="AH2" s="6"/>
-      <c r="AI2" s="35" t="s">
+      <c r="AI2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="25"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="5"/>
       <c r="G3" s="6" t="s">
         <v>14</v>
@@ -12986,24 +12966,24 @@
       <c r="AF3" s="6"/>
       <c r="AG3" s="6"/>
       <c r="AH3" s="6"/>
-      <c r="AI3" s="35" t="s">
+      <c r="AI3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="35"/>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="35"/>
-      <c r="AQ3" s="35"/>
+      <c r="AJ3" s="25"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="25"/>
+      <c r="AO3" s="25"/>
+      <c r="AP3" s="25"/>
+      <c r="AQ3" s="25"/>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -13033,24 +13013,24 @@
       <c r="AF4" s="6"/>
       <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
-      <c r="AI4" s="35" t="s">
+      <c r="AI4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="35"/>
-      <c r="AQ4" s="35"/>
+      <c r="AJ4" s="25"/>
+      <c r="AK4" s="25"/>
+      <c r="AL4" s="25"/>
+      <c r="AM4" s="25"/>
+      <c r="AN4" s="25"/>
+      <c r="AO4" s="25"/>
+      <c r="AP4" s="25"/>
+      <c r="AQ4" s="25"/>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -13080,24 +13060,24 @@
       <c r="AF5" s="8"/>
       <c r="AG5" s="8"/>
       <c r="AH5" s="8"/>
-      <c r="AI5" s="35" t="s">
+      <c r="AI5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AJ5" s="35"/>
-      <c r="AK5" s="35"/>
-      <c r="AL5" s="35"/>
-      <c r="AM5" s="35"/>
-      <c r="AN5" s="35"/>
-      <c r="AO5" s="35"/>
-      <c r="AP5" s="35"/>
-      <c r="AQ5" s="35"/>
+      <c r="AJ5" s="25"/>
+      <c r="AK5" s="25"/>
+      <c r="AL5" s="25"/>
+      <c r="AM5" s="25"/>
+      <c r="AN5" s="25"/>
+      <c r="AO5" s="25"/>
+      <c r="AP5" s="25"/>
+      <c r="AQ5" s="25"/>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -13108,11 +13088,11 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="17" t="s">
+      <c r="N6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="19"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="30"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -13142,9 +13122,9 @@
       <c r="AQ6" s="3"/>
     </row>
     <row r="7" spans="1:43" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="6"/>
       <c r="E7" s="9" t="s">
         <v>88</v>
@@ -13157,9 +13137,9 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="22"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="33"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6" t="s">
         <v>89</v>
@@ -13191,9 +13171,9 @@
       <c r="AQ7" s="10"/>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -13204,9 +13184,9 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="25"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="36"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
@@ -13239,60 +13219,60 @@
       <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16" t="s">
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16" t="s">
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16" t="s">
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16" t="s">
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="16"/>
-      <c r="AJ10" s="16"/>
-      <c r="AK10" s="16"/>
-      <c r="AL10" s="16"/>
-      <c r="AM10" s="16"/>
-      <c r="AN10" s="16"/>
-      <c r="AO10" s="16"/>
-      <c r="AP10" s="16"/>
-      <c r="AQ10" s="16"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="27"/>
+      <c r="AI10" s="27"/>
+      <c r="AJ10" s="27"/>
+      <c r="AK10" s="27"/>
+      <c r="AL10" s="27"/>
+      <c r="AM10" s="27"/>
+      <c r="AN10" s="27"/>
+      <c r="AO10" s="27"/>
+      <c r="AP10" s="27"/>
+      <c r="AQ10" s="27"/>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
@@ -13332,7 +13312,7 @@
       </c>
       <c r="Z11" s="15"/>
       <c r="AA11" s="14" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AB11" s="14"/>
       <c r="AC11" s="14"/>
@@ -13389,7 +13369,7 @@
       <c r="Y12" s="14"/>
       <c r="Z12" s="15"/>
       <c r="AA12" s="14" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AB12" s="14"/>
       <c r="AC12" s="14"/>
@@ -14625,6 +14605,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="AA10:AQ10"/>
+    <mergeCell ref="A6:C8"/>
+    <mergeCell ref="N6:P8"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:T10"/>
+    <mergeCell ref="U10:W10"/>
     <mergeCell ref="A1:E5"/>
     <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="AK2:AQ2"/>
@@ -14634,14 +14622,6 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AI5:AJ5"/>
     <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="AA10:AQ10"/>
-    <mergeCell ref="A6:C8"/>
-    <mergeCell ref="N6:P8"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="N10:T10"/>
-    <mergeCell ref="U10:W10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テーブル構成.xlsx
+++ b/テーブル構成.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="612"/>
   </bookViews>
   <sheets>
     <sheet name="RoomManagements" sheetId="1" r:id="rId1"/>
     <sheet name="Students" sheetId="2" r:id="rId2"/>
     <sheet name="Times" sheetId="7" r:id="rId3"/>
-    <sheet name="Rooms" sheetId="3" r:id="rId4"/>
-    <sheet name="Teachers" sheetId="4" r:id="rId5"/>
+    <sheet name="Teachers" sheetId="4" r:id="rId4"/>
+    <sheet name="Rooms" sheetId="3" r:id="rId5"/>
     <sheet name="Classes" sheetId="5" r:id="rId6"/>
     <sheet name="Reasons" sheetId="6" r:id="rId7"/>
   </sheets>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="157">
   <si>
     <t>データ項目一覧</t>
     <rPh sb="3" eb="5">
@@ -507,10 +507,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Time</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>利用可能学科</t>
     <rPh sb="0" eb="2">
       <t>リヨウ</t>
@@ -532,55 +528,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>利用可能時間帯</t>
-    <rPh sb="0" eb="2">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ジカンタイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AvailableTime</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>利用可能な時間をビットで表現（64）</t>
-    <rPh sb="0" eb="2">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウゲン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>利用可能な学科をビットで表現（32）</t>
-    <rPh sb="0" eb="2">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガッカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウゲン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>学籍番号</t>
     <rPh sb="0" eb="2">
       <t>ガクセキ</t>
@@ -766,10 +713,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>F</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>DATE</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1015,34 +958,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>利用開始時間を取り出すための外部キー(Times表のTimeCode参照)</t>
-    <rPh sb="0" eb="2">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>利用終了時間を取り出すための外部キー(Times表のTimeCode参照)</t>
     <rPh sb="0" eb="2">
       <t>リヨウ</t>
@@ -1163,7 +1078,346 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>BIGINT</t>
+    <t>利用可能時間帯(IT)</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ジカンタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TINYINT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>利用可能時間帯(電子)</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ジカンタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>デンシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>利用可能時間帯(ゲーム)</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ジカンタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>利用可能時間帯(CG)</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ジカンタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>利用可能時間帯(エアライン)</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ジカンタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>利用可能時間帯(エアポート)</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ジカンタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>利用可能時間帯(パイロット)</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ジカンタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>利用可能時間帯(航空)</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ジカンタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウクウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ITAvailableTime</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ElectronicAvailableTime</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GameAvailableTime</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CGAvailableTime</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AirportAvailableTime</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AirlineAvailableTime</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PilotAvailableTime</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AviationAvailableTime</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>利用可能な学科を8ビットで表現</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガッカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IT学科の利用可能な時間を8ビットで表現</t>
+    <rPh sb="2" eb="4">
+      <t>ガッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電子学科の利用可能な時間を8ビットで表現</t>
+    <rPh sb="0" eb="2">
+      <t>デンシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲーム学科の利用可能な時間を8ビットで表現</t>
+    <rPh sb="3" eb="5">
+      <t>ガッカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CG学科の利用可能な時間を8ビットで表現</t>
+    <rPh sb="2" eb="4">
+      <t>ガッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エアライン学科利用可能な時間を8ビットで表現</t>
+    <rPh sb="5" eb="7">
+      <t>ガッカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エアポート利用可能な時間を8ビットで表現</t>
+    <rPh sb="5" eb="7">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パイロット学科利用可能な時間を8ビットで表現</t>
+    <rPh sb="5" eb="7">
+      <t>ガッカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>航空学科の利用可能な時間を8ビットで表現</t>
+    <rPh sb="0" eb="2">
+      <t>コウクウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UseTime</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>利用開始時間(現在時刻参照)</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サンショウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1792,8 +2046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ39"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2255,7 +2509,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -2263,7 +2517,7 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -2271,7 +2525,7 @@
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
@@ -2281,14 +2535,14 @@
       <c r="T11" s="15"/>
       <c r="U11" s="13"/>
       <c r="V11" s="14" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="W11" s="15"/>
       <c r="X11" s="13"/>
       <c r="Y11" s="14"/>
       <c r="Z11" s="15"/>
       <c r="AA11" s="14" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="AB11" s="14"/>
       <c r="AC11" s="14"/>
@@ -2312,7 +2566,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -2320,7 +2574,7 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -2328,7 +2582,7 @@
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
       <c r="N12" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
@@ -2338,14 +2592,14 @@
       <c r="T12" s="15"/>
       <c r="U12" s="13"/>
       <c r="V12" s="14" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="W12" s="15"/>
       <c r="X12" s="13"/>
       <c r="Y12" s="14"/>
       <c r="Z12" s="15"/>
       <c r="AA12" s="14" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="AB12" s="14"/>
       <c r="AC12" s="14"/>
@@ -2369,7 +2623,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -2377,7 +2631,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -2385,7 +2639,7 @@
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
       <c r="N13" s="13" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
@@ -2395,14 +2649,14 @@
       <c r="T13" s="15"/>
       <c r="U13" s="13"/>
       <c r="V13" s="14" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="W13" s="15"/>
       <c r="X13" s="13"/>
       <c r="Y13" s="14"/>
       <c r="Z13" s="15"/>
       <c r="AA13" s="14" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="AB13" s="14"/>
       <c r="AC13" s="14"/>
@@ -2426,13 +2680,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
@@ -2442,14 +2696,14 @@
       <c r="T14" s="15"/>
       <c r="U14" s="13"/>
       <c r="V14" s="14" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="W14" s="15"/>
       <c r="X14" s="13"/>
       <c r="Y14" s="14"/>
       <c r="Z14" s="15"/>
       <c r="AA14" s="14" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="AB14" s="14"/>
       <c r="AC14" s="14"/>
@@ -2473,7 +2727,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -2481,7 +2735,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="13" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
@@ -2489,7 +2743,7 @@
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
       <c r="N15" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
@@ -2498,15 +2752,13 @@
       <c r="S15" s="14"/>
       <c r="T15" s="15"/>
       <c r="U15" s="13"/>
-      <c r="V15" s="14" t="s">
-        <v>103</v>
-      </c>
+      <c r="V15" s="14"/>
       <c r="W15" s="15"/>
       <c r="X15" s="13"/>
       <c r="Y15" s="14"/>
       <c r="Z15" s="15"/>
       <c r="AA15" s="14" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="AB15" s="14"/>
       <c r="AC15" s="14"/>
@@ -2530,7 +2782,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -2538,7 +2790,7 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -2546,7 +2798,7 @@
       <c r="L16" s="14"/>
       <c r="M16" s="15"/>
       <c r="N16" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
@@ -2556,14 +2808,14 @@
       <c r="T16" s="15"/>
       <c r="U16" s="13"/>
       <c r="V16" s="14" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="W16" s="15"/>
       <c r="X16" s="13"/>
       <c r="Y16" s="14"/>
       <c r="Z16" s="15"/>
       <c r="AA16" s="14" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="AB16" s="14"/>
       <c r="AC16" s="14"/>
@@ -2587,7 +2839,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -2595,7 +2847,7 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -2603,7 +2855,7 @@
       <c r="L17" s="14"/>
       <c r="M17" s="15"/>
       <c r="N17" s="13" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
@@ -2618,7 +2870,7 @@
       <c r="Y17" s="14"/>
       <c r="Z17" s="15"/>
       <c r="AA17" s="14" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="AB17" s="14"/>
       <c r="AC17" s="14"/>
@@ -2642,7 +2894,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -2658,7 +2910,7 @@
       <c r="L18" s="14"/>
       <c r="M18" s="15"/>
       <c r="N18" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
@@ -2668,14 +2920,14 @@
       <c r="T18" s="15"/>
       <c r="U18" s="13"/>
       <c r="V18" s="14" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="W18" s="15"/>
       <c r="X18" s="13"/>
       <c r="Y18" s="14"/>
       <c r="Z18" s="15"/>
       <c r="AA18" s="14" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="AB18" s="14"/>
       <c r="AC18" s="14"/>
@@ -2699,7 +2951,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -2707,7 +2959,7 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
@@ -2715,7 +2967,7 @@
       <c r="L19" s="14"/>
       <c r="M19" s="15"/>
       <c r="N19" s="13" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
@@ -2730,7 +2982,7 @@
       <c r="Y19" s="14"/>
       <c r="Z19" s="15"/>
       <c r="AA19" s="14" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="AB19" s="14"/>
       <c r="AC19" s="14"/>
@@ -4157,7 +4409,7 @@
       <c r="L11" s="14"/>
       <c r="M11" s="15"/>
       <c r="N11" s="13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
@@ -4206,7 +4458,7 @@
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="13" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -4214,7 +4466,7 @@
       <c r="L12" s="14"/>
       <c r="M12" s="15"/>
       <c r="N12" s="13" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
@@ -4227,7 +4479,7 @@
       <c r="W12" s="15"/>
       <c r="X12" s="13"/>
       <c r="Y12" s="14" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="Z12" s="15"/>
       <c r="AA12" s="14" t="s">
@@ -4385,7 +4637,7 @@
       <c r="L15" s="14"/>
       <c r="M15" s="15"/>
       <c r="N15" s="13" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
@@ -4455,7 +4707,7 @@
       <c r="Y16" s="14"/>
       <c r="Z16" s="15"/>
       <c r="AA16" s="14" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AB16" s="14"/>
       <c r="AC16" s="14"/>
@@ -5540,7 +5792,7 @@
   <dimension ref="A1:AQ39"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6016,7 +6268,7 @@
       <c r="L11" s="14"/>
       <c r="M11" s="15"/>
       <c r="N11" s="13" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
@@ -6035,7 +6287,7 @@
       </c>
       <c r="Z11" s="15"/>
       <c r="AA11" s="14" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="AB11" s="14"/>
       <c r="AC11" s="14"/>
@@ -6067,7 +6319,7 @@
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="13" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -6075,7 +6327,7 @@
       <c r="L12" s="14"/>
       <c r="M12" s="15"/>
       <c r="N12" s="13" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
@@ -6090,7 +6342,7 @@
       <c r="Y12" s="14"/>
       <c r="Z12" s="15"/>
       <c r="AA12" s="14" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="AB12" s="14"/>
       <c r="AC12" s="14"/>
@@ -7354,8 +7606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ39"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -7663,7 +7915,7 @@
       <c r="C7" s="22"/>
       <c r="D7" s="6"/>
       <c r="E7" s="9" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -7678,7 +7930,7 @@
       <c r="P7" s="22"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
@@ -7815,7 +8067,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -7823,7 +8075,7 @@
       <c r="F11" s="14"/>
       <c r="G11" s="15"/>
       <c r="H11" s="13" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -7831,7 +8083,7 @@
       <c r="L11" s="14"/>
       <c r="M11" s="15"/>
       <c r="N11" s="13" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
@@ -7848,7 +8100,7 @@
       </c>
       <c r="Z11" s="15"/>
       <c r="AA11" s="14" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="AB11" s="14"/>
       <c r="AC11" s="14"/>
@@ -7872,7 +8124,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -7880,7 +8132,7 @@
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="13" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -7888,7 +8140,7 @@
       <c r="L12" s="14"/>
       <c r="M12" s="15"/>
       <c r="N12" s="13" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
@@ -7897,15 +8149,13 @@
       <c r="S12" s="14"/>
       <c r="T12" s="15"/>
       <c r="U12" s="13"/>
-      <c r="V12" s="14">
-        <v>30</v>
-      </c>
+      <c r="V12" s="14"/>
       <c r="W12" s="15"/>
       <c r="X12" s="13"/>
       <c r="Y12" s="14"/>
       <c r="Z12" s="15"/>
       <c r="AA12" s="14" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="AB12" s="14"/>
       <c r="AC12" s="14"/>
@@ -7929,7 +8179,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -7937,7 +8187,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="15"/>
       <c r="H13" s="13" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -7945,7 +8195,7 @@
       <c r="L13" s="14"/>
       <c r="M13" s="15"/>
       <c r="N13" s="13" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
@@ -7957,10 +8207,12 @@
       <c r="V13" s="14"/>
       <c r="W13" s="15"/>
       <c r="X13" s="13"/>
-      <c r="Y13" s="14"/>
+      <c r="Y13" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="Z13" s="15"/>
       <c r="AA13" s="14" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="AB13" s="14"/>
       <c r="AC13" s="14"/>
@@ -7984,7 +8236,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -7992,7 +8244,7 @@
       <c r="F14" s="14"/>
       <c r="G14" s="15"/>
       <c r="H14" s="13" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -8000,7 +8252,7 @@
       <c r="L14" s="14"/>
       <c r="M14" s="15"/>
       <c r="N14" s="13" t="s">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
@@ -8015,7 +8267,7 @@
       <c r="Y14" s="14"/>
       <c r="Z14" s="15"/>
       <c r="AA14" s="14" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="AB14" s="14"/>
       <c r="AC14" s="14"/>
@@ -9161,6 +9413,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="AA10:AQ10"/>
+    <mergeCell ref="A6:C8"/>
+    <mergeCell ref="N6:P8"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:T10"/>
+    <mergeCell ref="U10:W10"/>
     <mergeCell ref="A1:E5"/>
     <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="AK2:AQ2"/>
@@ -9170,14 +9430,6 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AI5:AJ5"/>
     <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="AA10:AQ10"/>
-    <mergeCell ref="A6:C8"/>
-    <mergeCell ref="N6:P8"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="N10:T10"/>
-    <mergeCell ref="U10:W10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9189,8 +9441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -9498,7 +9750,7 @@
       <c r="C7" s="22"/>
       <c r="D7" s="6"/>
       <c r="E7" s="9" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -9513,7 +9765,7 @@
       <c r="P7" s="22"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
@@ -9650,7 +9902,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -9658,7 +9910,7 @@
       <c r="F11" s="14"/>
       <c r="G11" s="15"/>
       <c r="H11" s="13" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -9666,7 +9918,7 @@
       <c r="L11" s="14"/>
       <c r="M11" s="15"/>
       <c r="N11" s="13" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
@@ -9683,7 +9935,7 @@
       </c>
       <c r="Z11" s="15"/>
       <c r="AA11" s="14" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="AB11" s="14"/>
       <c r="AC11" s="14"/>
@@ -9707,7 +9959,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -9715,7 +9967,7 @@
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="13" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -9723,7 +9975,7 @@
       <c r="L12" s="14"/>
       <c r="M12" s="15"/>
       <c r="N12" s="13" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
@@ -9732,13 +9984,15 @@
       <c r="S12" s="14"/>
       <c r="T12" s="15"/>
       <c r="U12" s="13"/>
-      <c r="V12" s="14"/>
+      <c r="V12" s="14">
+        <v>30</v>
+      </c>
       <c r="W12" s="15"/>
       <c r="X12" s="13"/>
       <c r="Y12" s="14"/>
       <c r="Z12" s="15"/>
       <c r="AA12" s="14" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="AB12" s="14"/>
       <c r="AC12" s="14"/>
@@ -9762,7 +10016,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -9770,7 +10024,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="15"/>
       <c r="H13" s="13" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -9778,7 +10032,7 @@
       <c r="L13" s="14"/>
       <c r="M13" s="15"/>
       <c r="N13" s="13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
@@ -9790,12 +10044,10 @@
       <c r="V13" s="14"/>
       <c r="W13" s="15"/>
       <c r="X13" s="13"/>
-      <c r="Y13" s="14" t="s">
-        <v>49</v>
-      </c>
+      <c r="Y13" s="14"/>
       <c r="Z13" s="15"/>
       <c r="AA13" s="14" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="AB13" s="14"/>
       <c r="AC13" s="14"/>
@@ -9819,7 +10071,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -9827,7 +10079,7 @@
       <c r="F14" s="14"/>
       <c r="G14" s="15"/>
       <c r="H14" s="13" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -9835,7 +10087,7 @@
       <c r="L14" s="14"/>
       <c r="M14" s="15"/>
       <c r="N14" s="13" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
@@ -9850,8 +10102,1893 @@
       <c r="Y14" s="14"/>
       <c r="Z14" s="15"/>
       <c r="AA14" s="14" t="s">
-        <v>111</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="14"/>
+      <c r="AK14" s="14"/>
+      <c r="AL14" s="14"/>
+      <c r="AM14" s="14"/>
+      <c r="AN14" s="14"/>
+      <c r="AO14" s="14"/>
+      <c r="AP14" s="14"/>
+      <c r="AQ14" s="15"/>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>5</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="14"/>
+      <c r="AJ15" s="14"/>
+      <c r="AK15" s="14"/>
+      <c r="AL15" s="14"/>
+      <c r="AM15" s="14"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="14"/>
+      <c r="AP15" s="14"/>
+      <c r="AQ15" s="15"/>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>6</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="14"/>
+      <c r="AK16" s="14"/>
+      <c r="AL16" s="14"/>
+      <c r="AM16" s="14"/>
+      <c r="AN16" s="14"/>
+      <c r="AO16" s="14"/>
+      <c r="AP16" s="14"/>
+      <c r="AQ16" s="15"/>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>7</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="14"/>
+      <c r="AJ17" s="14"/>
+      <c r="AK17" s="14"/>
+      <c r="AL17" s="14"/>
+      <c r="AM17" s="14"/>
+      <c r="AN17" s="14"/>
+      <c r="AO17" s="14"/>
+      <c r="AP17" s="14"/>
+      <c r="AQ17" s="15"/>
+    </row>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>8</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
+      <c r="AI18" s="14"/>
+      <c r="AJ18" s="14"/>
+      <c r="AK18" s="14"/>
+      <c r="AL18" s="14"/>
+      <c r="AM18" s="14"/>
+      <c r="AN18" s="14"/>
+      <c r="AO18" s="14"/>
+      <c r="AP18" s="14"/>
+      <c r="AQ18" s="15"/>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>9</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="14"/>
+      <c r="AJ19" s="14"/>
+      <c r="AK19" s="14"/>
+      <c r="AL19" s="14"/>
+      <c r="AM19" s="14"/>
+      <c r="AN19" s="14"/>
+      <c r="AO19" s="14"/>
+      <c r="AP19" s="14"/>
+      <c r="AQ19" s="15"/>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>10</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="14"/>
+      <c r="AI20" s="14"/>
+      <c r="AJ20" s="14"/>
+      <c r="AK20" s="14"/>
+      <c r="AL20" s="14"/>
+      <c r="AM20" s="14"/>
+      <c r="AN20" s="14"/>
+      <c r="AO20" s="14"/>
+      <c r="AP20" s="14"/>
+      <c r="AQ20" s="15"/>
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>11</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="14"/>
+      <c r="AJ21" s="14"/>
+      <c r="AK21" s="14"/>
+      <c r="AL21" s="14"/>
+      <c r="AM21" s="14"/>
+      <c r="AN21" s="14"/>
+      <c r="AO21" s="14"/>
+      <c r="AP21" s="14"/>
+      <c r="AQ21" s="15"/>
+    </row>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="14"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="14"/>
+      <c r="AI22" s="14"/>
+      <c r="AJ22" s="14"/>
+      <c r="AK22" s="14"/>
+      <c r="AL22" s="14"/>
+      <c r="AM22" s="14"/>
+      <c r="AN22" s="14"/>
+      <c r="AO22" s="14"/>
+      <c r="AP22" s="14"/>
+      <c r="AQ22" s="15"/>
+    </row>
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="14"/>
+      <c r="AJ23" s="14"/>
+      <c r="AK23" s="14"/>
+      <c r="AL23" s="14"/>
+      <c r="AM23" s="14"/>
+      <c r="AN23" s="14"/>
+      <c r="AO23" s="14"/>
+      <c r="AP23" s="14"/>
+      <c r="AQ23" s="15"/>
+    </row>
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="14"/>
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="14"/>
+      <c r="AI24" s="14"/>
+      <c r="AJ24" s="14"/>
+      <c r="AK24" s="14"/>
+      <c r="AL24" s="14"/>
+      <c r="AM24" s="14"/>
+      <c r="AN24" s="14"/>
+      <c r="AO24" s="14"/>
+      <c r="AP24" s="14"/>
+      <c r="AQ24" s="15"/>
+    </row>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="14"/>
+      <c r="AJ25" s="14"/>
+      <c r="AK25" s="14"/>
+      <c r="AL25" s="14"/>
+      <c r="AM25" s="14"/>
+      <c r="AN25" s="14"/>
+      <c r="AO25" s="14"/>
+      <c r="AP25" s="14"/>
+      <c r="AQ25" s="15"/>
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="14"/>
+      <c r="AI26" s="14"/>
+      <c r="AJ26" s="14"/>
+      <c r="AK26" s="14"/>
+      <c r="AL26" s="14"/>
+      <c r="AM26" s="14"/>
+      <c r="AN26" s="14"/>
+      <c r="AO26" s="14"/>
+      <c r="AP26" s="14"/>
+      <c r="AQ26" s="15"/>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="14"/>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="14"/>
+      <c r="AI27" s="14"/>
+      <c r="AJ27" s="14"/>
+      <c r="AK27" s="14"/>
+      <c r="AL27" s="14"/>
+      <c r="AM27" s="14"/>
+      <c r="AN27" s="14"/>
+      <c r="AO27" s="14"/>
+      <c r="AP27" s="14"/>
+      <c r="AQ27" s="15"/>
+    </row>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="14"/>
+      <c r="AG28" s="14"/>
+      <c r="AH28" s="14"/>
+      <c r="AI28" s="14"/>
+      <c r="AJ28" s="14"/>
+      <c r="AK28" s="14"/>
+      <c r="AL28" s="14"/>
+      <c r="AM28" s="14"/>
+      <c r="AN28" s="14"/>
+      <c r="AO28" s="14"/>
+      <c r="AP28" s="14"/>
+      <c r="AQ28" s="15"/>
+    </row>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="14"/>
+      <c r="AG29" s="14"/>
+      <c r="AH29" s="14"/>
+      <c r="AI29" s="14"/>
+      <c r="AJ29" s="14"/>
+      <c r="AK29" s="14"/>
+      <c r="AL29" s="14"/>
+      <c r="AM29" s="14"/>
+      <c r="AN29" s="14"/>
+      <c r="AO29" s="14"/>
+      <c r="AP29" s="14"/>
+      <c r="AQ29" s="15"/>
+    </row>
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="14"/>
+      <c r="AG30" s="14"/>
+      <c r="AH30" s="14"/>
+      <c r="AI30" s="14"/>
+      <c r="AJ30" s="14"/>
+      <c r="AK30" s="14"/>
+      <c r="AL30" s="14"/>
+      <c r="AM30" s="14"/>
+      <c r="AN30" s="14"/>
+      <c r="AO30" s="14"/>
+      <c r="AP30" s="14"/>
+      <c r="AQ30" s="15"/>
+    </row>
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="14"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="14"/>
+      <c r="AG31" s="14"/>
+      <c r="AH31" s="14"/>
+      <c r="AI31" s="14"/>
+      <c r="AJ31" s="14"/>
+      <c r="AK31" s="14"/>
+      <c r="AL31" s="14"/>
+      <c r="AM31" s="14"/>
+      <c r="AN31" s="14"/>
+      <c r="AO31" s="14"/>
+      <c r="AP31" s="14"/>
+      <c r="AQ31" s="15"/>
+    </row>
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="14"/>
+      <c r="AG32" s="14"/>
+      <c r="AH32" s="14"/>
+      <c r="AI32" s="14"/>
+      <c r="AJ32" s="14"/>
+      <c r="AK32" s="14"/>
+      <c r="AL32" s="14"/>
+      <c r="AM32" s="14"/>
+      <c r="AN32" s="14"/>
+      <c r="AO32" s="14"/>
+      <c r="AP32" s="14"/>
+      <c r="AQ32" s="15"/>
+    </row>
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="15"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="14"/>
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="14"/>
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="14"/>
+      <c r="AG33" s="14"/>
+      <c r="AH33" s="14"/>
+      <c r="AI33" s="14"/>
+      <c r="AJ33" s="14"/>
+      <c r="AK33" s="14"/>
+      <c r="AL33" s="14"/>
+      <c r="AM33" s="14"/>
+      <c r="AN33" s="14"/>
+      <c r="AO33" s="14"/>
+      <c r="AP33" s="14"/>
+      <c r="AQ33" s="15"/>
+    </row>
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="14"/>
+      <c r="AC34" s="14"/>
+      <c r="AD34" s="14"/>
+      <c r="AE34" s="14"/>
+      <c r="AF34" s="14"/>
+      <c r="AG34" s="14"/>
+      <c r="AH34" s="14"/>
+      <c r="AI34" s="14"/>
+      <c r="AJ34" s="14"/>
+      <c r="AK34" s="14"/>
+      <c r="AL34" s="14"/>
+      <c r="AM34" s="14"/>
+      <c r="AN34" s="14"/>
+      <c r="AO34" s="14"/>
+      <c r="AP34" s="14"/>
+      <c r="AQ34" s="15"/>
+    </row>
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="14"/>
+      <c r="AC35" s="14"/>
+      <c r="AD35" s="14"/>
+      <c r="AE35" s="14"/>
+      <c r="AF35" s="14"/>
+      <c r="AG35" s="14"/>
+      <c r="AH35" s="14"/>
+      <c r="AI35" s="14"/>
+      <c r="AJ35" s="14"/>
+      <c r="AK35" s="14"/>
+      <c r="AL35" s="14"/>
+      <c r="AM35" s="14"/>
+      <c r="AN35" s="14"/>
+      <c r="AO35" s="14"/>
+      <c r="AP35" s="14"/>
+      <c r="AQ35" s="15"/>
+    </row>
+    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="15"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="14"/>
+      <c r="Z36" s="15"/>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="14"/>
+      <c r="AC36" s="14"/>
+      <c r="AD36" s="14"/>
+      <c r="AE36" s="14"/>
+      <c r="AF36" s="14"/>
+      <c r="AG36" s="14"/>
+      <c r="AH36" s="14"/>
+      <c r="AI36" s="14"/>
+      <c r="AJ36" s="14"/>
+      <c r="AK36" s="14"/>
+      <c r="AL36" s="14"/>
+      <c r="AM36" s="14"/>
+      <c r="AN36" s="14"/>
+      <c r="AO36" s="14"/>
+      <c r="AP36" s="14"/>
+      <c r="AQ36" s="15"/>
+    </row>
+    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="15"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="14"/>
+      <c r="Z37" s="15"/>
+      <c r="AA37" s="14"/>
+      <c r="AB37" s="14"/>
+      <c r="AC37" s="14"/>
+      <c r="AD37" s="14"/>
+      <c r="AE37" s="14"/>
+      <c r="AF37" s="14"/>
+      <c r="AG37" s="14"/>
+      <c r="AH37" s="14"/>
+      <c r="AI37" s="14"/>
+      <c r="AJ37" s="14"/>
+      <c r="AK37" s="14"/>
+      <c r="AL37" s="14"/>
+      <c r="AM37" s="14"/>
+      <c r="AN37" s="14"/>
+      <c r="AO37" s="14"/>
+      <c r="AP37" s="14"/>
+      <c r="AQ37" s="15"/>
+    </row>
+    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="15"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="15"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="14"/>
+      <c r="Z38" s="15"/>
+      <c r="AA38" s="14"/>
+      <c r="AB38" s="14"/>
+      <c r="AC38" s="14"/>
+      <c r="AD38" s="14"/>
+      <c r="AE38" s="14"/>
+      <c r="AF38" s="14"/>
+      <c r="AG38" s="14"/>
+      <c r="AH38" s="14"/>
+      <c r="AI38" s="14"/>
+      <c r="AJ38" s="14"/>
+      <c r="AK38" s="14"/>
+      <c r="AL38" s="14"/>
+      <c r="AM38" s="14"/>
+      <c r="AN38" s="14"/>
+      <c r="AO38" s="14"/>
+      <c r="AP38" s="14"/>
+      <c r="AQ38" s="15"/>
+    </row>
+    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="15"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="13"/>
+      <c r="Y39" s="14"/>
+      <c r="Z39" s="15"/>
+      <c r="AA39" s="14"/>
+      <c r="AB39" s="14"/>
+      <c r="AC39" s="14"/>
+      <c r="AD39" s="14"/>
+      <c r="AE39" s="14"/>
+      <c r="AF39" s="14"/>
+      <c r="AG39" s="14"/>
+      <c r="AH39" s="14"/>
+      <c r="AI39" s="14"/>
+      <c r="AJ39" s="14"/>
+      <c r="AK39" s="14"/>
+      <c r="AL39" s="14"/>
+      <c r="AM39" s="14"/>
+      <c r="AN39" s="14"/>
+      <c r="AO39" s="14"/>
+      <c r="AP39" s="14"/>
+      <c r="AQ39" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A1:E5"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AQ2"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AQ3"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="AA10:AQ10"/>
+    <mergeCell ref="A6:C8"/>
+    <mergeCell ref="N6:P8"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:T10"/>
+    <mergeCell ref="U10:W10"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AQ39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA13" sqref="AA13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="12" width="3.3984375" style="4"/>
+    <col min="13" max="13" width="6" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="3.3984375" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="3"/>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="35"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="35"/>
+      <c r="AQ2" s="35"/>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="35"/>
+      <c r="AM3" s="35"/>
+      <c r="AN3" s="35"/>
+      <c r="AO3" s="35"/>
+      <c r="AP3" s="35"/>
+      <c r="AQ3" s="35"/>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="35"/>
+      <c r="AL4" s="35"/>
+      <c r="AM4" s="35"/>
+      <c r="AN4" s="35"/>
+      <c r="AO4" s="35"/>
+      <c r="AP4" s="35"/>
+      <c r="AQ4" s="35"/>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="35"/>
+      <c r="AL5" s="35"/>
+      <c r="AM5" s="35"/>
+      <c r="AN5" s="35"/>
+      <c r="AO5" s="35"/>
+      <c r="AP5" s="35"/>
+      <c r="AQ5" s="35"/>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="18"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="3"/>
+    </row>
+    <row r="7" spans="1:43" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="10"/>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8"/>
+      <c r="AQ8" s="11"/>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="16"/>
+      <c r="AJ10" s="16"/>
+      <c r="AK10" s="16"/>
+      <c r="AL10" s="16"/>
+      <c r="AM10" s="16"/>
+      <c r="AN10" s="16"/>
+      <c r="AO10" s="16"/>
+      <c r="AP10" s="16"/>
+      <c r="AQ10" s="16"/>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>1</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="14"/>
+      <c r="AK11" s="14"/>
+      <c r="AL11" s="14"/>
+      <c r="AM11" s="14"/>
+      <c r="AN11" s="14"/>
+      <c r="AO11" s="14"/>
+      <c r="AP11" s="14"/>
+      <c r="AQ11" s="15"/>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>2</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="14">
+        <v>30</v>
+      </c>
+      <c r="W12" s="15"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="14"/>
+      <c r="AK12" s="14"/>
+      <c r="AL12" s="14"/>
+      <c r="AM12" s="14"/>
+      <c r="AN12" s="14"/>
+      <c r="AO12" s="14"/>
+      <c r="AP12" s="14"/>
+      <c r="AQ12" s="15"/>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="14"/>
+      <c r="AM13" s="14"/>
+      <c r="AN13" s="14"/>
+      <c r="AO13" s="14"/>
+      <c r="AP13" s="14"/>
+      <c r="AQ13" s="15"/>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="14"/>
       <c r="AB14" s="14"/>
       <c r="AC14" s="14"/>
       <c r="AD14" s="14"/>
@@ -10996,14 +13133,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="AA10:AQ10"/>
-    <mergeCell ref="A6:C8"/>
-    <mergeCell ref="N6:P8"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="N10:T10"/>
-    <mergeCell ref="U10:W10"/>
     <mergeCell ref="A1:E5"/>
     <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="AK2:AQ2"/>
@@ -11013,19 +13142,26 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AI5:AJ5"/>
     <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="AA10:AQ10"/>
+    <mergeCell ref="A6:C8"/>
+    <mergeCell ref="N6:P8"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:T10"/>
+    <mergeCell ref="U10:W10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA13" sqref="AA13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -11333,7 +13469,7 @@
       <c r="C7" s="22"/>
       <c r="D7" s="6"/>
       <c r="E7" s="9" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -11348,7 +13484,7 @@
       <c r="P7" s="22"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
@@ -11485,7 +13621,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -11493,7 +13629,7 @@
       <c r="F11" s="14"/>
       <c r="G11" s="15"/>
       <c r="H11" s="13" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -11501,7 +13637,7 @@
       <c r="L11" s="14"/>
       <c r="M11" s="15"/>
       <c r="N11" s="13" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
@@ -11518,7 +13654,7 @@
       </c>
       <c r="Z11" s="15"/>
       <c r="AA11" s="14" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AB11" s="14"/>
       <c r="AC11" s="14"/>
@@ -11542,7 +13678,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -11550,7 +13686,7 @@
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="13" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -11568,14 +13704,14 @@
       <c r="T12" s="15"/>
       <c r="U12" s="13"/>
       <c r="V12" s="14">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="W12" s="15"/>
       <c r="X12" s="13"/>
       <c r="Y12" s="14"/>
       <c r="Z12" s="15"/>
       <c r="AA12" s="14" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AB12" s="14"/>
       <c r="AC12" s="14"/>
@@ -12832,1818 +14968,4 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="12" width="3.3984375" style="4"/>
-    <col min="13" max="13" width="6" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="3.3984375" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="3"/>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="35"/>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="35"/>
-      <c r="AQ3" s="35"/>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="35"/>
-      <c r="AQ4" s="35"/>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8"/>
-      <c r="AH5" s="8"/>
-      <c r="AI5" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ5" s="35"/>
-      <c r="AK5" s="35"/>
-      <c r="AL5" s="35"/>
-      <c r="AM5" s="35"/>
-      <c r="AN5" s="35"/>
-      <c r="AO5" s="35"/>
-      <c r="AP5" s="35"/>
-      <c r="AQ5" s="35"/>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
-      <c r="AM6" s="2"/>
-      <c r="AN6" s="2"/>
-      <c r="AO6" s="2"/>
-      <c r="AP6" s="2"/>
-      <c r="AQ6" s="3"/>
-    </row>
-    <row r="7" spans="1:43" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
-      <c r="AM7" s="6"/>
-      <c r="AN7" s="6"/>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="6"/>
-      <c r="AQ7" s="10"/>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8"/>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="8"/>
-      <c r="AI8" s="8"/>
-      <c r="AJ8" s="8"/>
-      <c r="AK8" s="8"/>
-      <c r="AL8" s="8"/>
-      <c r="AM8" s="8"/>
-      <c r="AN8" s="8"/>
-      <c r="AO8" s="8"/>
-      <c r="AP8" s="8"/>
-      <c r="AQ8" s="11"/>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="16"/>
-      <c r="AJ10" s="16"/>
-      <c r="AK10" s="16"/>
-      <c r="AL10" s="16"/>
-      <c r="AM10" s="16"/>
-      <c r="AN10" s="16"/>
-      <c r="AO10" s="16"/>
-      <c r="AP10" s="16"/>
-      <c r="AQ10" s="16"/>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>1</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="14"/>
-      <c r="AE11" s="14"/>
-      <c r="AF11" s="14"/>
-      <c r="AG11" s="14"/>
-      <c r="AH11" s="14"/>
-      <c r="AI11" s="14"/>
-      <c r="AJ11" s="14"/>
-      <c r="AK11" s="14"/>
-      <c r="AL11" s="14"/>
-      <c r="AM11" s="14"/>
-      <c r="AN11" s="14"/>
-      <c r="AO11" s="14"/>
-      <c r="AP11" s="14"/>
-      <c r="AQ11" s="15"/>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>2</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="14">
-        <v>20</v>
-      </c>
-      <c r="W12" s="15"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="14"/>
-      <c r="AE12" s="14"/>
-      <c r="AF12" s="14"/>
-      <c r="AG12" s="14"/>
-      <c r="AH12" s="14"/>
-      <c r="AI12" s="14"/>
-      <c r="AJ12" s="14"/>
-      <c r="AK12" s="14"/>
-      <c r="AL12" s="14"/>
-      <c r="AM12" s="14"/>
-      <c r="AN12" s="14"/>
-      <c r="AO12" s="14"/>
-      <c r="AP12" s="14"/>
-      <c r="AQ12" s="15"/>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="14"/>
-      <c r="AE13" s="14"/>
-      <c r="AF13" s="14"/>
-      <c r="AG13" s="14"/>
-      <c r="AH13" s="14"/>
-      <c r="AI13" s="14"/>
-      <c r="AJ13" s="14"/>
-      <c r="AK13" s="14"/>
-      <c r="AL13" s="14"/>
-      <c r="AM13" s="14"/>
-      <c r="AN13" s="14"/>
-      <c r="AO13" s="14"/>
-      <c r="AP13" s="14"/>
-      <c r="AQ13" s="15"/>
-    </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="14"/>
-      <c r="AE14" s="14"/>
-      <c r="AF14" s="14"/>
-      <c r="AG14" s="14"/>
-      <c r="AH14" s="14"/>
-      <c r="AI14" s="14"/>
-      <c r="AJ14" s="14"/>
-      <c r="AK14" s="14"/>
-      <c r="AL14" s="14"/>
-      <c r="AM14" s="14"/>
-      <c r="AN14" s="14"/>
-      <c r="AO14" s="14"/>
-      <c r="AP14" s="14"/>
-      <c r="AQ14" s="15"/>
-    </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="14"/>
-      <c r="AE15" s="14"/>
-      <c r="AF15" s="14"/>
-      <c r="AG15" s="14"/>
-      <c r="AH15" s="14"/>
-      <c r="AI15" s="14"/>
-      <c r="AJ15" s="14"/>
-      <c r="AK15" s="14"/>
-      <c r="AL15" s="14"/>
-      <c r="AM15" s="14"/>
-      <c r="AN15" s="14"/>
-      <c r="AO15" s="14"/>
-      <c r="AP15" s="14"/>
-      <c r="AQ15" s="15"/>
-    </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="14"/>
-      <c r="AE16" s="14"/>
-      <c r="AF16" s="14"/>
-      <c r="AG16" s="14"/>
-      <c r="AH16" s="14"/>
-      <c r="AI16" s="14"/>
-      <c r="AJ16" s="14"/>
-      <c r="AK16" s="14"/>
-      <c r="AL16" s="14"/>
-      <c r="AM16" s="14"/>
-      <c r="AN16" s="14"/>
-      <c r="AO16" s="14"/>
-      <c r="AP16" s="14"/>
-      <c r="AQ16" s="15"/>
-    </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="14"/>
-      <c r="AE17" s="14"/>
-      <c r="AF17" s="14"/>
-      <c r="AG17" s="14"/>
-      <c r="AH17" s="14"/>
-      <c r="AI17" s="14"/>
-      <c r="AJ17" s="14"/>
-      <c r="AK17" s="14"/>
-      <c r="AL17" s="14"/>
-      <c r="AM17" s="14"/>
-      <c r="AN17" s="14"/>
-      <c r="AO17" s="14"/>
-      <c r="AP17" s="14"/>
-      <c r="AQ17" s="15"/>
-    </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="14"/>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="14"/>
-      <c r="AE18" s="14"/>
-      <c r="AF18" s="14"/>
-      <c r="AG18" s="14"/>
-      <c r="AH18" s="14"/>
-      <c r="AI18" s="14"/>
-      <c r="AJ18" s="14"/>
-      <c r="AK18" s="14"/>
-      <c r="AL18" s="14"/>
-      <c r="AM18" s="14"/>
-      <c r="AN18" s="14"/>
-      <c r="AO18" s="14"/>
-      <c r="AP18" s="14"/>
-      <c r="AQ18" s="15"/>
-    </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="14"/>
-      <c r="AE19" s="14"/>
-      <c r="AF19" s="14"/>
-      <c r="AG19" s="14"/>
-      <c r="AH19" s="14"/>
-      <c r="AI19" s="14"/>
-      <c r="AJ19" s="14"/>
-      <c r="AK19" s="14"/>
-      <c r="AL19" s="14"/>
-      <c r="AM19" s="14"/>
-      <c r="AN19" s="14"/>
-      <c r="AO19" s="14"/>
-      <c r="AP19" s="14"/>
-      <c r="AQ19" s="15"/>
-    </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="14"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="14"/>
-      <c r="AH20" s="14"/>
-      <c r="AI20" s="14"/>
-      <c r="AJ20" s="14"/>
-      <c r="AK20" s="14"/>
-      <c r="AL20" s="14"/>
-      <c r="AM20" s="14"/>
-      <c r="AN20" s="14"/>
-      <c r="AO20" s="14"/>
-      <c r="AP20" s="14"/>
-      <c r="AQ20" s="15"/>
-    </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="14"/>
-      <c r="AC21" s="14"/>
-      <c r="AD21" s="14"/>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="14"/>
-      <c r="AG21" s="14"/>
-      <c r="AH21" s="14"/>
-      <c r="AI21" s="14"/>
-      <c r="AJ21" s="14"/>
-      <c r="AK21" s="14"/>
-      <c r="AL21" s="14"/>
-      <c r="AM21" s="14"/>
-      <c r="AN21" s="14"/>
-      <c r="AO21" s="14"/>
-      <c r="AP21" s="14"/>
-      <c r="AQ21" s="15"/>
-    </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="14"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="14"/>
-      <c r="AB22" s="14"/>
-      <c r="AC22" s="14"/>
-      <c r="AD22" s="14"/>
-      <c r="AE22" s="14"/>
-      <c r="AF22" s="14"/>
-      <c r="AG22" s="14"/>
-      <c r="AH22" s="14"/>
-      <c r="AI22" s="14"/>
-      <c r="AJ22" s="14"/>
-      <c r="AK22" s="14"/>
-      <c r="AL22" s="14"/>
-      <c r="AM22" s="14"/>
-      <c r="AN22" s="14"/>
-      <c r="AO22" s="14"/>
-      <c r="AP22" s="14"/>
-      <c r="AQ22" s="15"/>
-    </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="15"/>
-      <c r="AA23" s="14"/>
-      <c r="AB23" s="14"/>
-      <c r="AC23" s="14"/>
-      <c r="AD23" s="14"/>
-      <c r="AE23" s="14"/>
-      <c r="AF23" s="14"/>
-      <c r="AG23" s="14"/>
-      <c r="AH23" s="14"/>
-      <c r="AI23" s="14"/>
-      <c r="AJ23" s="14"/>
-      <c r="AK23" s="14"/>
-      <c r="AL23" s="14"/>
-      <c r="AM23" s="14"/>
-      <c r="AN23" s="14"/>
-      <c r="AO23" s="14"/>
-      <c r="AP23" s="14"/>
-      <c r="AQ23" s="15"/>
-    </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="15"/>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="14"/>
-      <c r="AB24" s="14"/>
-      <c r="AC24" s="14"/>
-      <c r="AD24" s="14"/>
-      <c r="AE24" s="14"/>
-      <c r="AF24" s="14"/>
-      <c r="AG24" s="14"/>
-      <c r="AH24" s="14"/>
-      <c r="AI24" s="14"/>
-      <c r="AJ24" s="14"/>
-      <c r="AK24" s="14"/>
-      <c r="AL24" s="14"/>
-      <c r="AM24" s="14"/>
-      <c r="AN24" s="14"/>
-      <c r="AO24" s="14"/>
-      <c r="AP24" s="14"/>
-      <c r="AQ24" s="15"/>
-    </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="15"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="15"/>
-      <c r="AA25" s="14"/>
-      <c r="AB25" s="14"/>
-      <c r="AC25" s="14"/>
-      <c r="AD25" s="14"/>
-      <c r="AE25" s="14"/>
-      <c r="AF25" s="14"/>
-      <c r="AG25" s="14"/>
-      <c r="AH25" s="14"/>
-      <c r="AI25" s="14"/>
-      <c r="AJ25" s="14"/>
-      <c r="AK25" s="14"/>
-      <c r="AL25" s="14"/>
-      <c r="AM25" s="14"/>
-      <c r="AN25" s="14"/>
-      <c r="AO25" s="14"/>
-      <c r="AP25" s="14"/>
-      <c r="AQ25" s="15"/>
-    </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="15"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="14"/>
-      <c r="AC26" s="14"/>
-      <c r="AD26" s="14"/>
-      <c r="AE26" s="14"/>
-      <c r="AF26" s="14"/>
-      <c r="AG26" s="14"/>
-      <c r="AH26" s="14"/>
-      <c r="AI26" s="14"/>
-      <c r="AJ26" s="14"/>
-      <c r="AK26" s="14"/>
-      <c r="AL26" s="14"/>
-      <c r="AM26" s="14"/>
-      <c r="AN26" s="14"/>
-      <c r="AO26" s="14"/>
-      <c r="AP26" s="14"/>
-      <c r="AQ26" s="15"/>
-    </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="14"/>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="14"/>
-      <c r="AB27" s="14"/>
-      <c r="AC27" s="14"/>
-      <c r="AD27" s="14"/>
-      <c r="AE27" s="14"/>
-      <c r="AF27" s="14"/>
-      <c r="AG27" s="14"/>
-      <c r="AH27" s="14"/>
-      <c r="AI27" s="14"/>
-      <c r="AJ27" s="14"/>
-      <c r="AK27" s="14"/>
-      <c r="AL27" s="14"/>
-      <c r="AM27" s="14"/>
-      <c r="AN27" s="14"/>
-      <c r="AO27" s="14"/>
-      <c r="AP27" s="14"/>
-      <c r="AQ27" s="15"/>
-    </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="15"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="14"/>
-      <c r="AB28" s="14"/>
-      <c r="AC28" s="14"/>
-      <c r="AD28" s="14"/>
-      <c r="AE28" s="14"/>
-      <c r="AF28" s="14"/>
-      <c r="AG28" s="14"/>
-      <c r="AH28" s="14"/>
-      <c r="AI28" s="14"/>
-      <c r="AJ28" s="14"/>
-      <c r="AK28" s="14"/>
-      <c r="AL28" s="14"/>
-      <c r="AM28" s="14"/>
-      <c r="AN28" s="14"/>
-      <c r="AO28" s="14"/>
-      <c r="AP28" s="14"/>
-      <c r="AQ28" s="15"/>
-    </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="15"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="15"/>
-      <c r="AA29" s="14"/>
-      <c r="AB29" s="14"/>
-      <c r="AC29" s="14"/>
-      <c r="AD29" s="14"/>
-      <c r="AE29" s="14"/>
-      <c r="AF29" s="14"/>
-      <c r="AG29" s="14"/>
-      <c r="AH29" s="14"/>
-      <c r="AI29" s="14"/>
-      <c r="AJ29" s="14"/>
-      <c r="AK29" s="14"/>
-      <c r="AL29" s="14"/>
-      <c r="AM29" s="14"/>
-      <c r="AN29" s="14"/>
-      <c r="AO29" s="14"/>
-      <c r="AP29" s="14"/>
-      <c r="AQ29" s="15"/>
-    </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="15"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="14"/>
-      <c r="Z30" s="15"/>
-      <c r="AA30" s="14"/>
-      <c r="AB30" s="14"/>
-      <c r="AC30" s="14"/>
-      <c r="AD30" s="14"/>
-      <c r="AE30" s="14"/>
-      <c r="AF30" s="14"/>
-      <c r="AG30" s="14"/>
-      <c r="AH30" s="14"/>
-      <c r="AI30" s="14"/>
-      <c r="AJ30" s="14"/>
-      <c r="AK30" s="14"/>
-      <c r="AL30" s="14"/>
-      <c r="AM30" s="14"/>
-      <c r="AN30" s="14"/>
-      <c r="AO30" s="14"/>
-      <c r="AP30" s="14"/>
-      <c r="AQ30" s="15"/>
-    </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="14"/>
-      <c r="Z31" s="15"/>
-      <c r="AA31" s="14"/>
-      <c r="AB31" s="14"/>
-      <c r="AC31" s="14"/>
-      <c r="AD31" s="14"/>
-      <c r="AE31" s="14"/>
-      <c r="AF31" s="14"/>
-      <c r="AG31" s="14"/>
-      <c r="AH31" s="14"/>
-      <c r="AI31" s="14"/>
-      <c r="AJ31" s="14"/>
-      <c r="AK31" s="14"/>
-      <c r="AL31" s="14"/>
-      <c r="AM31" s="14"/>
-      <c r="AN31" s="14"/>
-      <c r="AO31" s="14"/>
-      <c r="AP31" s="14"/>
-      <c r="AQ31" s="15"/>
-    </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="15"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="14"/>
-      <c r="Z32" s="15"/>
-      <c r="AA32" s="14"/>
-      <c r="AB32" s="14"/>
-      <c r="AC32" s="14"/>
-      <c r="AD32" s="14"/>
-      <c r="AE32" s="14"/>
-      <c r="AF32" s="14"/>
-      <c r="AG32" s="14"/>
-      <c r="AH32" s="14"/>
-      <c r="AI32" s="14"/>
-      <c r="AJ32" s="14"/>
-      <c r="AK32" s="14"/>
-      <c r="AL32" s="14"/>
-      <c r="AM32" s="14"/>
-      <c r="AN32" s="14"/>
-      <c r="AO32" s="14"/>
-      <c r="AP32" s="14"/>
-      <c r="AQ32" s="15"/>
-    </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="15"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="14"/>
-      <c r="W33" s="15"/>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="14"/>
-      <c r="Z33" s="15"/>
-      <c r="AA33" s="14"/>
-      <c r="AB33" s="14"/>
-      <c r="AC33" s="14"/>
-      <c r="AD33" s="14"/>
-      <c r="AE33" s="14"/>
-      <c r="AF33" s="14"/>
-      <c r="AG33" s="14"/>
-      <c r="AH33" s="14"/>
-      <c r="AI33" s="14"/>
-      <c r="AJ33" s="14"/>
-      <c r="AK33" s="14"/>
-      <c r="AL33" s="14"/>
-      <c r="AM33" s="14"/>
-      <c r="AN33" s="14"/>
-      <c r="AO33" s="14"/>
-      <c r="AP33" s="14"/>
-      <c r="AQ33" s="15"/>
-    </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="15"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="15"/>
-      <c r="X34" s="13"/>
-      <c r="Y34" s="14"/>
-      <c r="Z34" s="15"/>
-      <c r="AA34" s="14"/>
-      <c r="AB34" s="14"/>
-      <c r="AC34" s="14"/>
-      <c r="AD34" s="14"/>
-      <c r="AE34" s="14"/>
-      <c r="AF34" s="14"/>
-      <c r="AG34" s="14"/>
-      <c r="AH34" s="14"/>
-      <c r="AI34" s="14"/>
-      <c r="AJ34" s="14"/>
-      <c r="AK34" s="14"/>
-      <c r="AL34" s="14"/>
-      <c r="AM34" s="14"/>
-      <c r="AN34" s="14"/>
-      <c r="AO34" s="14"/>
-      <c r="AP34" s="14"/>
-      <c r="AQ34" s="15"/>
-    </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="14"/>
-      <c r="T35" s="15"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="14"/>
-      <c r="W35" s="15"/>
-      <c r="X35" s="13"/>
-      <c r="Y35" s="14"/>
-      <c r="Z35" s="15"/>
-      <c r="AA35" s="14"/>
-      <c r="AB35" s="14"/>
-      <c r="AC35" s="14"/>
-      <c r="AD35" s="14"/>
-      <c r="AE35" s="14"/>
-      <c r="AF35" s="14"/>
-      <c r="AG35" s="14"/>
-      <c r="AH35" s="14"/>
-      <c r="AI35" s="14"/>
-      <c r="AJ35" s="14"/>
-      <c r="AK35" s="14"/>
-      <c r="AL35" s="14"/>
-      <c r="AM35" s="14"/>
-      <c r="AN35" s="14"/>
-      <c r="AO35" s="14"/>
-      <c r="AP35" s="14"/>
-      <c r="AQ35" s="15"/>
-    </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="14"/>
-      <c r="T36" s="15"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="14"/>
-      <c r="W36" s="15"/>
-      <c r="X36" s="13"/>
-      <c r="Y36" s="14"/>
-      <c r="Z36" s="15"/>
-      <c r="AA36" s="14"/>
-      <c r="AB36" s="14"/>
-      <c r="AC36" s="14"/>
-      <c r="AD36" s="14"/>
-      <c r="AE36" s="14"/>
-      <c r="AF36" s="14"/>
-      <c r="AG36" s="14"/>
-      <c r="AH36" s="14"/>
-      <c r="AI36" s="14"/>
-      <c r="AJ36" s="14"/>
-      <c r="AK36" s="14"/>
-      <c r="AL36" s="14"/>
-      <c r="AM36" s="14"/>
-      <c r="AN36" s="14"/>
-      <c r="AO36" s="14"/>
-      <c r="AP36" s="14"/>
-      <c r="AQ36" s="15"/>
-    </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="14"/>
-      <c r="T37" s="15"/>
-      <c r="U37" s="13"/>
-      <c r="V37" s="14"/>
-      <c r="W37" s="15"/>
-      <c r="X37" s="13"/>
-      <c r="Y37" s="14"/>
-      <c r="Z37" s="15"/>
-      <c r="AA37" s="14"/>
-      <c r="AB37" s="14"/>
-      <c r="AC37" s="14"/>
-      <c r="AD37" s="14"/>
-      <c r="AE37" s="14"/>
-      <c r="AF37" s="14"/>
-      <c r="AG37" s="14"/>
-      <c r="AH37" s="14"/>
-      <c r="AI37" s="14"/>
-      <c r="AJ37" s="14"/>
-      <c r="AK37" s="14"/>
-      <c r="AL37" s="14"/>
-      <c r="AM37" s="14"/>
-      <c r="AN37" s="14"/>
-      <c r="AO37" s="14"/>
-      <c r="AP37" s="14"/>
-      <c r="AQ37" s="15"/>
-    </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="15"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="14"/>
-      <c r="W38" s="15"/>
-      <c r="X38" s="13"/>
-      <c r="Y38" s="14"/>
-      <c r="Z38" s="15"/>
-      <c r="AA38" s="14"/>
-      <c r="AB38" s="14"/>
-      <c r="AC38" s="14"/>
-      <c r="AD38" s="14"/>
-      <c r="AE38" s="14"/>
-      <c r="AF38" s="14"/>
-      <c r="AG38" s="14"/>
-      <c r="AH38" s="14"/>
-      <c r="AI38" s="14"/>
-      <c r="AJ38" s="14"/>
-      <c r="AK38" s="14"/>
-      <c r="AL38" s="14"/>
-      <c r="AM38" s="14"/>
-      <c r="AN38" s="14"/>
-      <c r="AO38" s="14"/>
-      <c r="AP38" s="14"/>
-      <c r="AQ38" s="15"/>
-    </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="14"/>
-      <c r="T39" s="15"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="14"/>
-      <c r="W39" s="15"/>
-      <c r="X39" s="13"/>
-      <c r="Y39" s="14"/>
-      <c r="Z39" s="15"/>
-      <c r="AA39" s="14"/>
-      <c r="AB39" s="14"/>
-      <c r="AC39" s="14"/>
-      <c r="AD39" s="14"/>
-      <c r="AE39" s="14"/>
-      <c r="AF39" s="14"/>
-      <c r="AG39" s="14"/>
-      <c r="AH39" s="14"/>
-      <c r="AI39" s="14"/>
-      <c r="AJ39" s="14"/>
-      <c r="AK39" s="14"/>
-      <c r="AL39" s="14"/>
-      <c r="AM39" s="14"/>
-      <c r="AN39" s="14"/>
-      <c r="AO39" s="14"/>
-      <c r="AP39" s="14"/>
-      <c r="AQ39" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A1:E5"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AQ2"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AQ3"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="AA10:AQ10"/>
-    <mergeCell ref="A6:C8"/>
-    <mergeCell ref="N6:P8"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="N10:T10"/>
-    <mergeCell ref="U10:W10"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>